--- a/biology/Biochimie/Accepteur_primaire_d'électrons/Accepteur_primaire_d'électrons.xlsx
+++ b/biology/Biochimie/Accepteur_primaire_d'électrons/Accepteur_primaire_d'électrons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Accepteur_primaire_d%27%C3%A9lectrons</t>
+          <t>Accepteur_primaire_d'électrons</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les électrons produits par les photosystèmes sont transportés par l'intermédiaire de chaines d'accepteurs d'électrons. Le premier de ces accepteurs est appelé accepteur primaire.
 Après le photosystème II, le transport d'électrons commence par la phéophytine (accepteur primaire), passe par la plastoquinone, le cytochrome f et la plastocyanine et aboutit au photosystème I.
